--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.14995525642622</v>
+        <v>14.85604233333333</v>
       </c>
       <c r="N2">
-        <v>5.14995525642622</v>
+        <v>44.568127</v>
       </c>
       <c r="O2">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="P2">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="Q2">
-        <v>374.3746838002447</v>
+        <v>1469.45240241956</v>
       </c>
       <c r="R2">
-        <v>374.3746838002447</v>
+        <v>13225.07162177604</v>
       </c>
       <c r="S2">
-        <v>0.02655120886022898</v>
+        <v>0.07541757436274078</v>
       </c>
       <c r="T2">
-        <v>0.02655120886022898</v>
+        <v>0.07541757436274078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.686668406859</v>
+        <v>114.2734143333333</v>
       </c>
       <c r="N3">
-        <v>111.686668406859</v>
+        <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="P3">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="Q3">
-        <v>8119.033872643052</v>
+        <v>11303.1007489816</v>
       </c>
       <c r="R3">
-        <v>8119.033872643052</v>
+        <v>101727.9067408344</v>
       </c>
       <c r="S3">
-        <v>0.5758139463587268</v>
+        <v>0.5801157219262404</v>
       </c>
       <c r="T3">
-        <v>0.5758139463587268</v>
+        <v>0.5801157219262404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.725079664533</v>
+        <v>30.83766366666667</v>
       </c>
       <c r="N4">
-        <v>30.725079664533</v>
+        <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="P4">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="Q4">
-        <v>2233.55182936659</v>
+        <v>3050.238949462002</v>
       </c>
       <c r="R4">
-        <v>2233.55182936659</v>
+        <v>27452.15054515802</v>
       </c>
       <c r="S4">
-        <v>0.1584068145839195</v>
+        <v>0.1565492168486701</v>
       </c>
       <c r="T4">
-        <v>0.1584068145839195</v>
+        <v>0.1565492168486701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.14995525642622</v>
+        <v>14.85604233333333</v>
       </c>
       <c r="N5">
-        <v>5.14995525642622</v>
+        <v>44.568127</v>
       </c>
       <c r="O5">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="P5">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="Q5">
-        <v>87.66815859309912</v>
+        <v>253.2750600610263</v>
       </c>
       <c r="R5">
-        <v>87.66815859309912</v>
+        <v>2279.475540549236</v>
       </c>
       <c r="S5">
-        <v>0.006217556073954624</v>
+        <v>0.01299898563909131</v>
       </c>
       <c r="T5">
-        <v>0.006217556073954624</v>
+        <v>0.01299898563909131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.686668406859</v>
+        <v>114.2734143333333</v>
       </c>
       <c r="N6">
-        <v>111.686668406859</v>
+        <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="P6">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="Q6">
-        <v>1901.252354845127</v>
+        <v>1948.204321800659</v>
       </c>
       <c r="R6">
-        <v>1901.252354845127</v>
+        <v>17533.83889620593</v>
       </c>
       <c r="S6">
-        <v>0.1348396420854944</v>
+        <v>0.09998884215050802</v>
       </c>
       <c r="T6">
-        <v>0.1348396420854944</v>
+        <v>0.09998884215050802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.725079664533</v>
+        <v>30.83766366666667</v>
       </c>
       <c r="N7">
-        <v>30.725079664533</v>
+        <v>92.512991</v>
       </c>
       <c r="O7">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="P7">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="Q7">
-        <v>523.0358367589195</v>
+        <v>525.7396917745766</v>
       </c>
       <c r="R7">
-        <v>523.0358367589195</v>
+        <v>4731.657225971188</v>
       </c>
       <c r="S7">
-        <v>0.03709447872436941</v>
+        <v>0.02698284900862861</v>
       </c>
       <c r="T7">
-        <v>0.03709447872436941</v>
+        <v>0.02698284900862861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.14995525642622</v>
+        <v>14.85604233333333</v>
       </c>
       <c r="N8">
-        <v>5.14995525642622</v>
+        <v>44.568127</v>
       </c>
       <c r="O8">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="P8">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="Q8">
-        <v>30.05557692308995</v>
+        <v>86.75910895415868</v>
       </c>
       <c r="R8">
-        <v>30.05557692308995</v>
+        <v>780.831980587428</v>
       </c>
       <c r="S8">
-        <v>0.002131586175109627</v>
+        <v>0.004452789039251359</v>
       </c>
       <c r="T8">
-        <v>0.002131586175109627</v>
+        <v>0.004452789039251358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.686668406859</v>
+        <v>114.2734143333333</v>
       </c>
       <c r="N9">
-        <v>111.686668406859</v>
+        <v>342.820243</v>
       </c>
       <c r="O9">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="P9">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="Q9">
-        <v>651.8128967037718</v>
+        <v>667.3553684256948</v>
       </c>
       <c r="R9">
-        <v>651.8128967037718</v>
+        <v>6006.198315831252</v>
       </c>
       <c r="S9">
-        <v>0.04622753916610158</v>
+        <v>0.03425107410198969</v>
       </c>
       <c r="T9">
-        <v>0.04622753916610158</v>
+        <v>0.03425107410198969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.725079664533</v>
+        <v>30.83766366666667</v>
       </c>
       <c r="N10">
-        <v>30.725079664533</v>
+        <v>92.512991</v>
       </c>
       <c r="O10">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="P10">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="Q10">
-        <v>179.3141783461373</v>
+        <v>180.0915857613694</v>
       </c>
       <c r="R10">
-        <v>179.3141783461373</v>
+        <v>1620.824271852324</v>
       </c>
       <c r="S10">
-        <v>0.01271722797209486</v>
+        <v>0.009242946922879655</v>
       </c>
       <c r="T10">
-        <v>0.01271722797209486</v>
+        <v>0.009242946922879653</v>
       </c>
     </row>
   </sheetData>
